--- a/transportation_data/wislr-data/wislr-data-dictionary.xlsx
+++ b/transportation_data/wislr-data/wislr-data-dictionary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3274AC74-F9A0-4474-8228-13B0D4B3CF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>WISLR_PTY_ID</t>
   </si>
@@ -115,12 +116,45 @@
   </si>
   <si>
     <t>Reference Site "To" ID</t>
+  </si>
+  <si>
+    <t>WISLR_RDWY_LINK: Roadway network link-node defintions with functional class (2/2/2022)</t>
+  </si>
+  <si>
+    <t>LOC_FLKOS_FT</t>
+  </si>
+  <si>
+    <t>LOC_TLKOS_FT</t>
+  </si>
+  <si>
+    <t>ST_PRMY_SYMB_TY</t>
+  </si>
+  <si>
+    <t>FNCT_CLS_CTGY_TYCD</t>
+  </si>
+  <si>
+    <t>FNCT_CLS_CTGY_TYDC</t>
+  </si>
+  <si>
+    <t>To link offset for the record</t>
+  </si>
+  <si>
+    <t>From link offset for the record</t>
+  </si>
+  <si>
+    <t>Roadway type (CTH = county higway, USH = US higway, STH = state highway, blank = local road or not specified)</t>
+  </si>
+  <si>
+    <t>Functional class description</t>
+  </si>
+  <si>
+    <t>Functional class code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,16 +474,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,6 +624,83 @@
         <v>28</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
